--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N2">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O2">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P2">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q2">
-        <v>2418.61071980435</v>
+        <v>4460.080782851705</v>
       </c>
       <c r="R2">
-        <v>21767.49647823914</v>
+        <v>40140.72704566535</v>
       </c>
       <c r="S2">
-        <v>0.005054288433868939</v>
+        <v>0.007327317425398731</v>
       </c>
       <c r="T2">
-        <v>0.005054288433868939</v>
+        <v>0.007327317425398732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>2.614021</v>
       </c>
       <c r="O3">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P3">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q3">
-        <v>25.54886065089122</v>
+        <v>30.86737391770122</v>
       </c>
       <c r="R3">
-        <v>229.939745858021</v>
+        <v>277.806365259311</v>
       </c>
       <c r="S3">
-        <v>5.339069649735723E-05</v>
+        <v>5.071097538257091E-05</v>
       </c>
       <c r="T3">
-        <v>5.339069649735723E-05</v>
+        <v>5.071097538257092E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N4">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O4">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P4">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q4">
-        <v>94.91430061101299</v>
+        <v>98.53763154222943</v>
       </c>
       <c r="R4">
-        <v>854.2287054991169</v>
+        <v>886.838683880065</v>
       </c>
       <c r="S4">
-        <v>0.0001983470294987401</v>
+        <v>0.0001618841765003304</v>
       </c>
       <c r="T4">
-        <v>0.0001983470294987402</v>
+        <v>0.0001618841765003305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N5">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O5">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P5">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q5">
-        <v>524.4141148954679</v>
+        <v>479.5212147956416</v>
       </c>
       <c r="R5">
-        <v>4719.727034059211</v>
+        <v>4315.690933160775</v>
       </c>
       <c r="S5">
-        <v>0.001095893677213252</v>
+        <v>0.0007877893527242188</v>
       </c>
       <c r="T5">
-        <v>0.001095893677213252</v>
+        <v>0.000787789352724219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N6">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O6">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P6">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q6">
-        <v>3755.144105868962</v>
+        <v>5731.591291502132</v>
       </c>
       <c r="R6">
-        <v>33796.29695282066</v>
+        <v>51584.32162351919</v>
       </c>
       <c r="S6">
-        <v>0.007847307243945377</v>
+        <v>0.009416239478656897</v>
       </c>
       <c r="T6">
-        <v>0.007847307243945376</v>
+        <v>0.009416239478656895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>2.614021</v>
       </c>
       <c r="O7">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P7">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q7">
         <v>39.66725719822434</v>
@@ -883,10 +883,10 @@
         <v>357.005314784019</v>
       </c>
       <c r="S7">
-        <v>8.289459631457686E-05</v>
+        <v>6.516800906473323E-05</v>
       </c>
       <c r="T7">
-        <v>8.289459631457683E-05</v>
+        <v>6.516800906473323E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N8">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O8">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P8">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q8">
-        <v>147.364300333107</v>
+        <v>126.6294173424317</v>
       </c>
       <c r="R8">
-        <v>1326.278702997963</v>
+        <v>1139.664756081885</v>
       </c>
       <c r="S8">
-        <v>0.0003079543444672497</v>
+        <v>0.0002080352310722123</v>
       </c>
       <c r="T8">
-        <v>0.0003079543444672496</v>
+        <v>0.0002080352310722123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N9">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O9">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P9">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q9">
-        <v>814.2073283887145</v>
+        <v>616.2264211402751</v>
       </c>
       <c r="R9">
-        <v>7327.86595549843</v>
+        <v>5546.037790262475</v>
       </c>
       <c r="S9">
-        <v>0.001701488647573391</v>
+        <v>0.001012377760280214</v>
       </c>
       <c r="T9">
-        <v>0.00170148864757339</v>
+        <v>0.001012377760280214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N10">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O10">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P10">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q10">
-        <v>5528.524296917279</v>
+        <v>6429.568109881804</v>
       </c>
       <c r="R10">
-        <v>49756.71867225551</v>
+        <v>57866.11298893623</v>
       </c>
       <c r="S10">
-        <v>0.0115532260654715</v>
+        <v>0.01056292223012216</v>
       </c>
       <c r="T10">
-        <v>0.0115532260654715</v>
+        <v>0.01056292223012216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>2.614021</v>
       </c>
       <c r="O11">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P11">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q11">
-        <v>58.40026082346644</v>
+        <v>44.49782249238868</v>
       </c>
       <c r="R11">
-        <v>525.602347411198</v>
+        <v>400.4804024314981</v>
       </c>
       <c r="S11">
-        <v>0.000122041864942554</v>
+        <v>7.310398309250086E-05</v>
       </c>
       <c r="T11">
-        <v>0.000122041864942554</v>
+        <v>7.310398309250087E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N12">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O12">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P12">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q12">
-        <v>216.957616517694</v>
+        <v>142.0499861399634</v>
       </c>
       <c r="R12">
-        <v>1952.618548659246</v>
+        <v>1278.44987525967</v>
       </c>
       <c r="S12">
-        <v>0.0004533868814961089</v>
+        <v>0.0002333691673753724</v>
       </c>
       <c r="T12">
-        <v>0.0004533868814961089</v>
+        <v>0.0002333691673753725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N13">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O13">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P13">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q13">
-        <v>1198.71964186138</v>
+        <v>691.2687147990501</v>
       </c>
       <c r="R13">
-        <v>10788.47677675242</v>
+        <v>6221.418433191451</v>
       </c>
       <c r="S13">
-        <v>0.002505022727180171</v>
+        <v>0.001135662232633708</v>
       </c>
       <c r="T13">
-        <v>0.002505022727180171</v>
+        <v>0.001135662232633708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N14">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O14">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P14">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q14">
-        <v>366092.3170853114</v>
+        <v>518950.3761318364</v>
       </c>
       <c r="R14">
-        <v>3294830.853767802</v>
+        <v>4670553.385186527</v>
       </c>
       <c r="S14">
-        <v>0.7650409174247976</v>
+        <v>0.8525662020670313</v>
       </c>
       <c r="T14">
-        <v>0.7650409174247974</v>
+        <v>0.8525662020670312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>2.614021</v>
       </c>
       <c r="O15">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P15">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q15">
-        <v>3867.195955920978</v>
+        <v>3591.557212681475</v>
       </c>
       <c r="R15">
-        <v>34804.7636032888</v>
+        <v>32324.01491413327</v>
       </c>
       <c r="S15">
-        <v>0.008081467443879218</v>
+        <v>0.005900449124145936</v>
       </c>
       <c r="T15">
-        <v>0.008081467443879215</v>
+        <v>0.005900449124145936</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N16">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O16">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P16">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q16">
-        <v>14366.67585680278</v>
+        <v>11465.29478761697</v>
       </c>
       <c r="R16">
-        <v>129300.082711225</v>
+        <v>103187.6530885527</v>
       </c>
       <c r="S16">
-        <v>0.03002274116359509</v>
+        <v>0.01883594902756996</v>
       </c>
       <c r="T16">
-        <v>0.03002274116359509</v>
+        <v>0.01883594902756996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N17">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O17">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P17">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q17">
-        <v>79377.79191264597</v>
+        <v>55794.44115410932</v>
       </c>
       <c r="R17">
-        <v>714400.1272138137</v>
+        <v>502149.9703869838</v>
       </c>
       <c r="S17">
-        <v>0.165879631759259</v>
+        <v>0.09166281975894927</v>
       </c>
       <c r="T17">
-        <v>0.165879631759259</v>
+        <v>0.09166281975894927</v>
       </c>
     </row>
   </sheetData>
